--- a/8086汇编/栈平衡分析.xlsx
+++ b/8086汇编/栈平衡分析.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangyu/iOS/笔记/8086汇编/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF3F474-9734-014B-B2C7-879E992D03B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44A9A5A-C2C1-F24C-A002-48694E88C573}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15920" yWindow="640" windowWidth="28240" windowHeight="17440" xr2:uid="{A64BC003-A25A-784D-A1E9-68882D0140D0}"/>
+    <workbookView xWindow="400" yWindow="660" windowWidth="28240" windowHeight="17440" activeTab="1" xr2:uid="{A64BC003-A25A-784D-A1E9-68882D0140D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="45">
   <si>
     <t>0x40000</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +139,41 @@
   </si>
   <si>
     <t>返回地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>局部参数</t>
+  </si>
+  <si>
+    <t>&lt;---  bp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bp之前的值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -177,8 +213,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="8"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +264,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -212,7 +291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -222,20 +301,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58A4C88-876D-4B40-B4D4-9AB5C5E0579E}">
-  <dimension ref="A6:F37"/>
+  <dimension ref="A5:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -562,264 +671,626 @@
     <col min="4" max="4" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+    <row r="5" spans="1:7" ht="18">
+      <c r="C5" s="12"/>
+      <c r="D5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="8"/>
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="8"/>
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8"/>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8"/>
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8"/>
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8"/>
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="8"/>
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="18">
+      <c r="A15" s="8"/>
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3"/>
+      <c r="C15" s="3">
+        <v>76</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="8"/>
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3"/>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" ht="18">
+      <c r="A17" s="8"/>
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3"/>
+      <c r="C17" s="14">
+        <v>18</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="8"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3"/>
+      <c r="C18" s="14">
+        <v>17</v>
+      </c>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="8"/>
       <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3"/>
+      <c r="C19" s="14">
+        <v>16</v>
+      </c>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="8"/>
       <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="3"/>
+      <c r="C20" s="14">
+        <v>15</v>
+      </c>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" ht="18">
+      <c r="A21" s="8"/>
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="3"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="8"/>
       <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="3"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="8"/>
       <c r="B23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="3"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="8"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="8"/>
       <c r="B24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="3"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="8"/>
       <c r="B25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="3"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="8"/>
       <c r="B26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="3"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" ht="17">
+      <c r="A27" s="8"/>
       <c r="B27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="3"/>
+      <c r="C27" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" ht="17">
+      <c r="A28" s="8"/>
       <c r="B28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="3"/>
+      <c r="C28" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" ht="17">
+      <c r="A29" s="8"/>
       <c r="B29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="3"/>
+      <c r="C29" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" ht="17">
+      <c r="A30" s="8"/>
       <c r="B30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" ht="18">
-      <c r="A31" s="3"/>
+      <c r="C30" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" ht="18">
+      <c r="A31" s="8"/>
       <c r="B31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>89</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="3"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="8"/>
       <c r="B32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>0</v>
       </c>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" ht="18">
+      <c r="A33" s="8"/>
       <c r="B33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>44</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="8"/>
       <c r="B34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>33</v>
       </c>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="8"/>
       <c r="B35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>22</v>
       </c>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="8"/>
       <c r="B36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>11</v>
       </c>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" ht="21">
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" ht="21">
       <c r="B37" t="s">
         <v>33</v>
       </c>
       <c r="D37" s="1"/>
+      <c r="F37" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
     <mergeCell ref="A6:A36"/>
     <mergeCell ref="D33:D36"/>
     <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D21:D30"/>
+    <mergeCell ref="D5:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77D43CF-9B83-C342-9D14-F5CA9A2F8273}">
+  <dimension ref="A6:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:2">
+      <c r="A6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="18">
+      <c r="A21" s="8"/>
+      <c r="B21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="8"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8"/>
+      <c r="B22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="8"/>
+      <c r="B23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8"/>
+      <c r="B24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="8"/>
+      <c r="B25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8"/>
+      <c r="B26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8"/>
+      <c r="B27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8"/>
+      <c r="B28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" ht="18">
+      <c r="A29" s="8"/>
+      <c r="B29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="8"/>
+      <c r="B30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" ht="18">
+      <c r="A31" s="8"/>
+      <c r="B31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="3">
+        <v>89</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="8"/>
+      <c r="B32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" ht="18">
+      <c r="A33" s="8"/>
+      <c r="B33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="5">
+        <v>44</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="8"/>
+      <c r="B34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="5">
+        <v>33</v>
+      </c>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="8"/>
+      <c r="B35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="5">
+        <v>22</v>
+      </c>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="8"/>
+      <c r="B36" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="5">
+        <v>11</v>
+      </c>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" ht="21">
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="F37" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A6:A36"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D19:D28"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>